--- a/samples/direct-mode/excels/subfiles/关卡npc.xlsx
+++ b/samples/direct-mode/excels/subfiles/关卡npc.xlsx
@@ -30,9 +30,6 @@
     <t>编号</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
     <t>描述</t>
   </si>
   <si>
@@ -116,6 +113,10 @@
   </si>
   <si>
     <t>/levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称:locale</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +623,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -644,28 +645,28 @@
         <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2">
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="H1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -680,34 +681,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -725,19 +726,19 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -745,14 +746,14 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="5">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -760,14 +761,14 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -775,11 +776,11 @@
         <v>3</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1"/>
       <c r="E9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
